--- a/pruebasAEjecutar.xlsx
+++ b/pruebasAEjecutar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="202">
   <si>
     <t>10_nodos</t>
   </si>
@@ -28,6 +28,9 @@
     <t>20_nodos</t>
   </si>
   <si>
+    <t>25_nodo_{t}</t>
+  </si>
+  <si>
     <t>ACEGI_{t+1}|ACEGI_{t}</t>
   </si>
   <si>
@@ -37,6 +40,9 @@
     <t>ABCDEFGHIJKLMNOPQRST_{t+1}|ABCDEFGHIJKLMNOPQRST_{t}</t>
   </si>
   <si>
+    <t>ABCDEFGHIJKLMNOPQRSTUVWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXY_{t}</t>
+  </si>
+  <si>
     <t>ACEGI_{t+1}|BDFHJ_{t}</t>
   </si>
   <si>
@@ -46,6 +52,9 @@
     <t>ABCDEFGHIJKLMNOPQRST_{t+1}|ABCDEFGHIJKLMNOPQRS_{t}</t>
   </si>
   <si>
+    <t>ABCDEFGHIJKLMNOPQRSTUVWX_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXY_{t}</t>
+  </si>
+  <si>
     <t>BDFHJ_{t+1}|ACEGI_{t}</t>
   </si>
   <si>
@@ -55,6 +64,9 @@
     <t>ABCDEFGHIJKLMNOPQRST_{t+1}|BCDEFGHIJKLMNOPQRST_{t}</t>
   </si>
   <si>
+    <t>ABCDEFGHIJKLMNOPQRSTUVWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVW_{t}</t>
+  </si>
+  <si>
     <t>BDFHJ_{t+1}|BDFHJ_{t}</t>
   </si>
   <si>
@@ -64,6 +76,9 @@
     <t>ABCDEFGHIJKLMNOPQRST_{t+1}|BCDEFGHIJKLMNOPQRS_{t}</t>
   </si>
   <si>
+    <t>ABCDEFGHIJKLMNOPQRSTUVXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVXY_{t}</t>
+  </si>
+  <si>
     <t>ACEGI_{t+1}|ABDEGHJ_{t}</t>
   </si>
   <si>
@@ -73,6 +88,9 @@
     <t>ABCDEFGHIJKLMNOPQRST_{t+1}|ACEGIKMOQS_{t}</t>
   </si>
   <si>
+    <t>ABCDEFGHIJKLMNOPQRSTUVWXY_{t+1}|ABCDEFGHJIKLMNOPQRTUVXY_{t}</t>
+  </si>
+  <si>
     <t>BDFHJ_{t+1}|ABDEGHJ_{t}</t>
   </si>
   <si>
@@ -82,6 +100,9 @@
     <t>ABCDEFGHIJKLMNOPQRST_{t+1}|BDFHJLNPRT_{t}</t>
   </si>
   <si>
+    <t>ABCDEFGHIJKLMNOPQRSTUWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUWXY_{t}</t>
+  </si>
+  <si>
     <t>ABDEGHJ_{t+1}|ACEGI_{t}</t>
   </si>
   <si>
@@ -100,6 +121,9 @@
     <t>ABCDEFGHIJKLMNOPQRS_{t+1}|ABCDEFGHIJKLMNOPQRST_{t}</t>
   </si>
   <si>
+    <t>ABCDEFGHIJLMNOPQRSTUVWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXY_{t}</t>
+  </si>
+  <si>
     <t>BCDEFGHI_{t+1}|ACEGI_{t}</t>
   </si>
   <si>
@@ -109,6 +133,9 @@
     <t>ABCDEFGHIJKLMNOPQRS_{t+1}|ABCDEFGHIJKLMNOPQRS_{t}</t>
   </si>
   <si>
+    <t>ABCDEFGHIJKLMNOPQRSTUVWXY_{t+1}|ABCDEFGHJIKLMNPQRSTUVWXY_{t}</t>
+  </si>
+  <si>
     <t>BCDEFGHI_{t+1}|BDFHJ_{t}</t>
   </si>
   <si>
@@ -118,6 +145,9 @@
     <t>ABCDEFGHIJKLMNOPQRS_{t+1}|BCDEFGHIJKLMNOPQRST_{t}</t>
   </si>
   <si>
+    <t>ABCDEFGHIJKLMNOPRSTUVWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXY_{t}</t>
+  </si>
+  <si>
     <t>ACEGI_{t+1}|BCDEFGHI_{t}</t>
   </si>
   <si>
@@ -127,6 +157,9 @@
     <t>ABCDEFGHIJKLMNOPQRS_{t+1}|BCDEFGHIJKLMNOPQRS_{t}</t>
   </si>
   <si>
+    <t>ABCDEFGHIJKLMNOPQRSTUVWXY_{t+1}|ABCDEFGHIKLMNOPQRSTUVWXY_{t}</t>
+  </si>
+  <si>
     <t>BDFHJ_{t+1}|BCDEFGHI_{t}</t>
   </si>
   <si>
@@ -136,6 +169,9 @@
     <t>ABCDEFGHIJKLMNOPQRS_{t+1}|ACEGIKMOQS_{t}</t>
   </si>
   <si>
+    <t>ABCDEFGHIJKLMNOPQRSTUVWXY_{t+1}|ABCDEFGJIKLMNOPQRSTUVWXY_{t}</t>
+  </si>
+  <si>
     <t>ABCDEFGHI_{t+1}|ACEGI_{t}</t>
   </si>
   <si>
@@ -145,6 +181,9 @@
     <t>ABCDEFGHIJKLMNOPQRS_{t+1}|BDFHJLNPRT_{t}</t>
   </si>
   <si>
+    <t>BCDEFGHIJKLMNOPQRSTUVWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>ABCDEFGHI_{t+1}|BDFHJ_{t}</t>
   </si>
   <si>
@@ -154,6 +193,9 @@
     <t>ABCDEFGHIJKLMNOPQRS_{t+1}|ABDEGHJKMNPQST_{t}</t>
   </si>
   <si>
+    <t>ACDEFGHIJKLMNOPQRSTUVWX_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>BCDEFGHIJ_{t+1}|ACEGI_{t}</t>
   </si>
   <si>
@@ -163,6 +205,9 @@
     <t>BCDEFGHIJKLMNOPQRST_{t+1}|ABCDEFGHIJKLMNOPQRST_{t}</t>
   </si>
   <si>
+    <t>ABDEFGHIJKLMNOPQRSTUVWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>BCDEFGHIJ_{t+1}|BDFHJ_{t}</t>
   </si>
   <si>
@@ -172,6 +217,9 @@
     <t>BCDEFGHIJKLMNOPQRST_{t+1}|ABCDEFGHIJKLMNOPQRS_{t}</t>
   </si>
   <si>
+    <t>ABCEFGHIJKLMNOPQRSTUVXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>ACEGI_{t+1}|ABCDEFGHI_{t}</t>
   </si>
   <si>
@@ -181,6 +229,9 @@
     <t>BCDEFGHIJKLMNOPQRST_{t+1}|BCDEFGHIJKLMNOPQRST_{t}</t>
   </si>
   <si>
+    <t>ABCDFGHIJKLMNOPQRSTUVWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>ACEGI_{t+1}|BCDEFGHIJ_{t}</t>
   </si>
   <si>
@@ -190,6 +241,9 @@
     <t>BCDEFGHIJKLMNOPQRST_{t+1}|BCDEFGHIJKLMNOPQRS_{t}</t>
   </si>
   <si>
+    <t>ABCDEGHIJKLMNOPQRSTUWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>BDFHJ_{t+1}|ABCDEFGHI_{t}</t>
   </si>
   <si>
@@ -199,6 +253,9 @@
     <t>BCDEFGHIJKLMNOPQRST_{t+1}|ACEGIKMOQS_{t}</t>
   </si>
   <si>
+    <t>ABCDEFHIJKLMNOPQRSTUVWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>BDFHJ_{t+1}|BCDEFGHIJ_{t}</t>
   </si>
   <si>
@@ -208,6 +265,9 @@
     <t>BCDEFGHIJKLMNOPQRST_{t+1}|BDFHJLNPRT_{t}</t>
   </si>
   <si>
+    <t>ABCDEFGIJLMNOPQRSTUVWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>ABDEGHJ_{t+1}|ABDEGHJ_{t}</t>
   </si>
   <si>
@@ -217,6 +277,9 @@
     <t>BCDEFGHIJKLMNOPQRST_{t+1}|ABDEGHJKMNPQST_{t}</t>
   </si>
   <si>
+    <t>ABCDEFGHJKLMNOPQRSTUVWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>ABCDEFGHIJ_{t+1}|ACEGI_{t}</t>
   </si>
   <si>
@@ -226,6 +289,9 @@
     <t>BCDEFGHIJKLMNOPQRS_{t+1}|ABCDEFGHIJKLMNOPQRST_{t}</t>
   </si>
   <si>
+    <t>ABCDEFGHIKLMNOPRSTUVWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>ABCDEFGHIJ_{t+1}|BDFHJ_{t}</t>
   </si>
   <si>
@@ -235,6 +301,9 @@
     <t>BCDEFGHIJKLMNOPQRS_{t+1}|ABCDEFGHIJKLMNOPQRS_{t}</t>
   </si>
   <si>
+    <t>ABCDEFGHIJLMNOPQRSTUVWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>BCDEFGHI_{t+1}|ABDEGHJ_{t}</t>
   </si>
   <si>
@@ -244,6 +313,9 @@
     <t>BCDEFGHIJKLMNOPQRS_{t+1}|BCDEFGHIJKLMNOPQRST_{t}</t>
   </si>
   <si>
+    <t>ABCDEFGHIJKMNOPQRSTUVWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>ACEGI_{t+1}|ABCDEFGHIJ_{t}</t>
   </si>
   <si>
@@ -253,6 +325,9 @@
     <t>BCDEFGHIJKLMNOPQRS_{t+1}|BCDEFGHIJKLMNOPQRS_{t}</t>
   </si>
   <si>
+    <t>BCDEFGHIJKMNOPQRSTUVWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>BDFHJ_{t+1}|ABCDEFGHIJ_{t}</t>
   </si>
   <si>
@@ -262,6 +337,9 @@
     <t>BCDEFGHIJKLMNOPQRS_{t+1}|ACEGIKMOQS_{t}</t>
   </si>
   <si>
+    <t>ACDEFGHIJKLNOPQRSTUVWX_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>ABDEGHJ_{t+1}|BCDEFGHI_{t}</t>
   </si>
   <si>
@@ -271,6 +349,9 @@
     <t>BCDEFGHIJKLMNOPQRS_{t+1}|BDFHJLNPRT_{t}</t>
   </si>
   <si>
+    <t>ABDEFGHIJKLMOPQRSTUVWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>ABCDEFGHI_{t+1}|ABDEGHJ_{t}</t>
   </si>
   <si>
@@ -280,6 +361,9 @@
     <t>BCDEFGHIJKLMNOPQRS_{t+1}|ABDEGHJKMNPQST_{t}</t>
   </si>
   <si>
+    <t>ABCEFGHIJKLMNPQRSTUVXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>BCDEFGHIJ_{t+1}|ABDEGHJ_{t}</t>
   </si>
   <si>
@@ -289,6 +373,9 @@
     <t>ACEGIKMOQS_{t+1}|ABCDEFGHIJKLMNOPQRST_{t}</t>
   </si>
   <si>
+    <t>ABCDFGHIJKLMNOQRSTUVWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>BCDEFGHI_{t+1}|BCDEFGHI_{t}</t>
   </si>
   <si>
@@ -298,6 +385,9 @@
     <t>ACEGIKMOQS_{t+1}|ABCDEFGHIJKLMNOPQRS_{t}</t>
   </si>
   <si>
+    <t>ABCDEGHIJKLMNOPRSTUWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>ABDEGHJ_{t+1}|ABCDEFGHI_{t}</t>
   </si>
   <si>
@@ -307,6 +397,9 @@
     <t>ACEGIKMOQS_{t+1}|BCDEFGHIJKLMNOPQRST_{t}</t>
   </si>
   <si>
+    <t>ABCDEFHIJKLMNOPQSTUVWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>ABDEGHJ_{t+1}|BCDEFGHIJ_{t}</t>
   </si>
   <si>
@@ -316,6 +409,9 @@
     <t>ACEGIKMOQS_{t+1}|BCDEFGHIJKLMNOPQRS_{t}</t>
   </si>
   <si>
+    <t>ABCDEFGIJLMNOPQRTUVWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>BCDEFGJ_{t+1}|BCDEFGHIJ_{t}</t>
   </si>
   <si>
@@ -325,6 +421,9 @@
     <t>ACEGIKMOQS_{t+1}|ACEGIKMOQS_{t}</t>
   </si>
   <si>
+    <t>ABCDEFGHJKLMNOPQRSUVWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>ABCDEFGHIJ_{t+1}|ABDEGHJ_{t}</t>
   </si>
   <si>
@@ -334,6 +433,9 @@
     <t>ACEGIKMOQS_{t+1}|BDFHJLNPRT_{t}</t>
   </si>
   <si>
+    <t>ABCDEFGHIKLMNOPRSTVWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>ABCDEFGHI_{t+1}|BCDEFGHI_{t}</t>
   </si>
   <si>
@@ -343,6 +445,9 @@
     <t>ACEGIKMOQS_{t+1}|ABDEGHJKMNPQST_{t}</t>
   </si>
   <si>
+    <t>ABCDEFGHIJLMNOPQRSTUWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>BCDEFGHIJ_{t+1}|BCDEFGHI_{t}</t>
   </si>
   <si>
@@ -352,6 +457,9 @@
     <t>BDFHJLNPRT_{t+1}|ABCDEFGHIJKLMNOPQRST_{t}</t>
   </si>
   <si>
+    <t>ABCDEFGHIJKMNOPQRSTUVXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>BCDEFGHI_{t+1}|ABCDEFGHI_{t}</t>
   </si>
   <si>
@@ -361,6 +469,9 @@
     <t>BDFHJLNPRT_{t+1}|ABCDEFGHIJKLMNOPQRS_{t}</t>
   </si>
   <si>
+    <t>CDEFGHIJKMNOPQRSTUVWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>BCDEFGHI_{t+1}|BCDEFGHIJ_{t}</t>
   </si>
   <si>
@@ -370,6 +481,9 @@
     <t>BDFHJLNPRT_{t+1}|BCDEFGHIJKLMNOPQRST_{t}</t>
   </si>
   <si>
+    <t>CDEFGHIJKLNOPQRSTUVWX_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>ABDEGHJ_{t+1}|ABCDEFGHIJ_{t}</t>
   </si>
   <si>
@@ -379,6 +493,9 @@
     <t>BDFHJLNPRT_{t+1}|BCDEFGHIJKLMNOPQRS_{t}</t>
   </si>
   <si>
+    <t>BDEFGHIJKLMOPQRSTUVWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>ABCDEFGHIJ_{t+1}|BCDEFGHI_{t}</t>
   </si>
   <si>
@@ -388,6 +505,9 @@
     <t>BDFHJLNPRT_{t+1}|ACEGIKMOQS_{t}</t>
   </si>
   <si>
+    <t>BCEFGHIJKLMNPQRSTUVXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>ABCDEFGHI_{t+1}|ABCDEFGHI_{t}</t>
   </si>
   <si>
@@ -397,6 +517,9 @@
     <t>BDFHJLNPRT_{t+1}|BDFHJLNPRT_{t}</t>
   </si>
   <si>
+    <t>BCDFGHIJKLMNOQRSTUVWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>ABCDEFGHI_{t+1}|BCDEFGHIJ_{t}</t>
   </si>
   <si>
@@ -406,6 +529,9 @@
     <t>BDFHJLNPRT_{t+1}|ABDEGHJKMNPQST_{t}</t>
   </si>
   <si>
+    <t>BCDEGHIJKLMNOPRSTUWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>BCDEFGHIJ_{t+1}|ABCDEFGHI_{t}</t>
   </si>
   <si>
@@ -415,6 +541,9 @@
     <t>ABDEGHJKMNPQST_{t+1}|ABCDEFGHIJKLMNOPQRST_{t}</t>
   </si>
   <si>
+    <t>BCDEFHIJKLMNOPQSTUVWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>BCDEFGHIJ_{t+1}|BCDEFGHIJ_{t}</t>
   </si>
   <si>
@@ -424,6 +553,9 @@
     <t>ABDEGHJKMNPQST_{t+1}|ABCDEFGHIJKLMNOPQRS_{t}</t>
   </si>
   <si>
+    <t>BCDEFGIJLMNOPQRTUVWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>BCDEFGHI_{t+1}|ABCDEFGHIJ_{t}</t>
   </si>
   <si>
@@ -433,6 +565,9 @@
     <t>ABDEGHJKMNPQST_{t+1}|BCDEFGHIJKLMNOPQRST_{t}</t>
   </si>
   <si>
+    <t>BCDEFGHJKLMNOPQRSUVWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>ABCDEFGHIJ_{t+1}|ABCDEFGHI_{t}</t>
   </si>
   <si>
@@ -442,6 +577,9 @@
     <t>ABDEGHJKMNPQST_{t+1}|BCDEFGHIJKLMNOPQRS_{t}</t>
   </si>
   <si>
+    <t>BCDEFGHIKLMNOPRSTVWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>ABCDEFGHIJ_{t+1}|BCDEFGHIJ_{t}</t>
   </si>
   <si>
@@ -451,6 +589,9 @@
     <t>ABDEGHJKMNPQST_{t+1}|ACEGIKMOQS_{t}</t>
   </si>
   <si>
+    <t>BCDEFGHIJLMNOPQRSTUWXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
+  </si>
+  <si>
     <t>ABCDEFGHI_{t+1}|ABCDEFGHIJ_{t}</t>
   </si>
   <si>
@@ -458,6 +599,9 @@
   </si>
   <si>
     <t>ABDEGHJKMNPQST_{t+1}|BDFHJLNPRT_{t}</t>
+  </si>
+  <si>
+    <t>BCDEFGHIJKMNOPQRSTUVXY_{t+1}|ABCDEFGHJIKLMNOPQRSTUVWXYZ_{t}</t>
   </si>
   <si>
     <t>BCDEFGHIJ_{t+1}|ABCDEFGHIJ_{t}</t>
@@ -483,13 +627,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -534,25 +684,25 @@
   <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -869,769 +1019,867 @@
     <col min="5" max="5" style="6" width="62.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="28.5" customFormat="1" s="3">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="72" customFormat="1" s="1">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="28.5" customFormat="1" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="72" customFormat="1" s="1">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="72" customFormat="1" s="1">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="72" customFormat="1" s="1">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="58.5" customFormat="1" s="1">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="58.5" customFormat="1" s="1">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="58.5" customFormat="1" s="1">
+      <c r="A8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="28.5" customFormat="1" s="3">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="3">
-      <c r="A8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="28.5" customFormat="1" s="3">
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="72" customFormat="1" s="1">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E9" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="72" customFormat="1" s="1">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="72" customFormat="1" s="1">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="E11" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="E12" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A13" s="4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E13" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="E14" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A15" s="4" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="E15" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="28.5" customFormat="1" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="28.5" customFormat="1" s="1">
       <c r="A16" s="4" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="E16" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A17" s="4" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="E17" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A18" s="4" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E18" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A19" s="4" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="E19" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A20" s="4" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E20" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A21" s="4" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E21" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A22" s="4" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="E22" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A23" s="4" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="E23" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A24" s="4" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="E24" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A25" s="4" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="E25" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A26" s="4" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="E26" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A27" s="4" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="E27" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A28" s="4" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="E28" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A29" s="4" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="E29" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A30" s="4" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="E30" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>119</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A31" s="4" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E31" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A32" s="4" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="E32" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>127</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A33" s="4" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E33" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>131</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A34" s="4" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="1"/>
+        <v>133</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="E34" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>135</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A35" s="4" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="E35" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>139</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A36" s="4" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="E36" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>143</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A37" s="4" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="E37" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>147</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A38" s="4" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="E38" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>151</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A39" s="4" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="E39" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>155</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A40" s="4" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D40" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="E40" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>159</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A41" s="4" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="E41" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>163</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A42" s="4" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="E42" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>167</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A43" s="4" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" s="1"/>
+        <v>169</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="E43" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>171</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A44" s="4" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D44" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="E44" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>175</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A45" s="4" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" s="1"/>
+        <v>177</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E45" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>179</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A46" s="4" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D46" s="1"/>
+        <v>181</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="E46" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>183</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A47" s="4" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D47" s="1"/>
+        <v>185</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="E47" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>187</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A48" s="4" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D48" s="1"/>
+        <v>189</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="E48" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>191</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A49" s="4" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" s="1"/>
+        <v>193</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="E49" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>195</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A50" s="4" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="3">
+        <v>197</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A51" s="4" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D51" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="D51" s="3"/>
       <c r="E51" s="5" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
